--- a/Bases_de_Dados/FootyStats/Sweden Allsvenskan_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Sweden Allsvenskan_2025.xlsx
@@ -45848,13 +45848,13 @@
         <v>5</v>
       </c>
       <c r="AX208" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY208" t="n">
         <v>10</v>
       </c>
       <c r="AZ208" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA208" t="n">
         <v>5</v>
@@ -46063,16 +46063,16 @@
         <v>6</v>
       </c>
       <c r="AW209" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX209" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY209" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ209" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA209" t="n">
         <v>9</v>
@@ -46720,13 +46720,13 @@
         <v>9</v>
       </c>
       <c r="AX212" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY212" t="n">
         <v>13</v>
       </c>
       <c r="AZ212" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA212" t="n">
         <v>3</v>
@@ -47920,7 +47920,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>['16', '37', '50', '51', '84', '88']</t>
+          <t>['16', '38', '50', '51', '84', '88']</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -48240,16 +48240,16 @@
         <v>2</v>
       </c>
       <c r="AV219" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW219" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX219" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY219" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ219" t="n">
         <v>14</v>
@@ -50205,16 +50205,16 @@
         <v>1</v>
       </c>
       <c r="AW228" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX228" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY228" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ228" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA228" t="n">
         <v>7</v>
@@ -50411,10 +50411,10 @@
         <v>1.55</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AT229" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="AU229" t="n">
         <v>3</v>
@@ -50423,16 +50423,16 @@
         <v>6</v>
       </c>
       <c r="AW229" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX229" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY229" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ229" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA229" t="n">
         <v>2</v>
@@ -50853,13 +50853,13 @@
         <v>3.03</v>
       </c>
       <c r="AU231" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV231" t="n">
         <v>3</v>
       </c>
       <c r="AW231" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX231" t="n">
         <v>8</v>
@@ -51298,13 +51298,13 @@
         <v>5</v>
       </c>
       <c r="AX233" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY233" t="n">
         <v>8</v>
       </c>
       <c r="AZ233" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA233" t="n">
         <v>7</v>
@@ -52385,13 +52385,13 @@
         <v>4</v>
       </c>
       <c r="AW238" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX238" t="n">
         <v>6</v>
       </c>
       <c r="AY238" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AZ238" t="n">
         <v>10</v>
@@ -53024,10 +53024,10 @@
         <v>1.47</v>
       </c>
       <c r="AR241" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AT241" t="n">
         <v>2.75</v>
